--- a/Desktop/BACTH NO & EXPIRY DATE.xlsx
+++ b/Desktop/BACTH NO & EXPIRY DATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E44BCC-3C8A-49D0-8280-79BEEF50B09C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FF763-8D5B-4E4E-BE9A-685815EE438D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{574035D6-8DF7-4F0A-83B2-5281B377678F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>NO BATCH &amp; EXPIRY DATE</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>EXP DATE</t>
+  </si>
+  <si>
+    <t>DAYS LEFT TO EXPIRY</t>
+  </si>
+  <si>
+    <t>HC 20925173 - 2</t>
+  </si>
+  <si>
+    <t>HC 33253877 - 2</t>
+  </si>
+  <si>
+    <t>HC 28845526 - 2</t>
+  </si>
+  <si>
+    <t>HC 28959376 - 2</t>
   </si>
 </sst>
 </file>
@@ -107,11 +122,10 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="24"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -155,14 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,6 +190,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,162 +527,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B308B0-5D0C-4DDA-9FC5-5886229794D3}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="C1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="3:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="D3" s="5">
         <v>1123090</v>
       </c>
-      <c r="C3" s="7">
+      <c r="E3" s="6">
         <v>45977</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="str">
+        <f ca="1">IF(DATEDIF(TODAY(), E3, "y") &gt; 0, DATEDIF(TODAY(), E3, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E3, "ym") &gt; 0, DATEDIF(TODAY(), E3, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E3, "md") &amp; " hari"</f>
+        <v>9 bulan, 25 hari</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="7">
+      <c r="K3" s="6">
         <v>46356</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="L3" s="5" t="str">
+        <f ca="1">IF(DATEDIF(TODAY(), K3, "y") &gt; 0, DATEDIF(TODAY(), K3, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), K3, "ym") &gt; 0, DATEDIF(TODAY(), K3, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), K3, "md") &amp; " hari"</f>
+        <v>1 tahun, 10 bulan, 8 hari</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="D4" s="5">
         <v>4122020</v>
       </c>
-      <c r="C4" s="7">
+      <c r="E4" s="6">
         <v>45727</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="str">
+        <f ca="1">IF(DATEDIF(TODAY(), E4, "y") &gt; 0, DATEDIF(TODAY(), E4, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E4, "ym") &gt; 0, DATEDIF(TODAY(), E4, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E4, "md") &amp; " hari"</f>
+        <v>1 bulan, 17 hari</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="K4" s="6">
         <v>46325</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="L4" s="5" t="str">
+        <f t="shared" ref="L4:L6" ca="1" si="0">IF(DATEDIF(TODAY(), K4, "y") &gt; 0, DATEDIF(TODAY(), K4, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), K4, "ym") &gt; 0, DATEDIF(TODAY(), K4, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), K4, "md") &amp; " hari"</f>
+        <v>1 tahun, 9 bulan, 8 hari</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7">
+      <c r="E5" s="6">
         <v>47087</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="str">
+        <f ca="1">IF(DATEDIF(TODAY(), E5, "y") &gt; 0, DATEDIF(TODAY(), E5, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E5, "ym") &gt; 0, DATEDIF(TODAY(), E5, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E5, "md") &amp; " hari"</f>
+        <v>3 tahun, 10 bulan, 8 hari</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="I5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="K5" s="6">
         <v>46173</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="L5" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1 tahun, 4 bulan, 9 hari</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="K6" s="6">
         <v>46203</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1 tahun, 5 bulan, 8 hari</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -675,10 +717,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -688,10 +730,10 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -701,21 +743,24 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>LEN(H6:I9)=0</formula>
+      <formula>LEN(J6:K9)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="I6">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>LEN(G6:H9)=0</formula>
+      <formula>LEN(I6:J9)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Desktop/BACTH NO & EXPIRY DATE.xlsx
+++ b/Desktop/BACTH NO & EXPIRY DATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1FF763-8D5B-4E4E-BE9A-685815EE438D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1E5F6-6499-4CB7-92A4-72F17F549868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{574035D6-8DF7-4F0A-83B2-5281B377678F}"/>
   </bookViews>
@@ -192,11 +192,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +530,7 @@
   <dimension ref="C1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,17 +545,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), E3, "y") &gt; 0, DATEDIF(TODAY(), E3, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E3, "ym") &gt; 0, DATEDIF(TODAY(), E3, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E3, "md") &amp; " hari"</f>
-        <v>9 bulan, 25 hari</v>
+        <v>9 bulan, 20 hari</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -613,7 +613,7 @@
       </c>
       <c r="L3" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), K3, "y") &gt; 0, DATEDIF(TODAY(), K3, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), K3, "ym") &gt; 0, DATEDIF(TODAY(), K3, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), K3, "md") &amp; " hari"</f>
-        <v>1 tahun, 10 bulan, 8 hari</v>
+        <v>1 tahun, 10 bulan, 3 hari</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), E4, "y") &gt; 0, DATEDIF(TODAY(), E4, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E4, "ym") &gt; 0, DATEDIF(TODAY(), E4, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E4, "md") &amp; " hari"</f>
-        <v>1 bulan, 17 hari</v>
+        <v>1 bulan, 12 hari</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="5" t="s">
@@ -646,7 +646,7 @@
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" ref="L4:L6" ca="1" si="0">IF(DATEDIF(TODAY(), K4, "y") &gt; 0, DATEDIF(TODAY(), K4, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), K4, "ym") &gt; 0, DATEDIF(TODAY(), K4, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), K4, "md") &amp; " hari"</f>
-        <v>1 tahun, 9 bulan, 8 hari</v>
+        <v>1 tahun, 9 bulan, 3 hari</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), E5, "y") &gt; 0, DATEDIF(TODAY(), E5, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E5, "ym") &gt; 0, DATEDIF(TODAY(), E5, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E5, "md") &amp; " hari"</f>
-        <v>3 tahun, 10 bulan, 8 hari</v>
+        <v>3 tahun, 10 bulan, 3 hari</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="5" t="s">
@@ -679,7 +679,7 @@
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 tahun, 4 bulan, 9 hari</v>
+        <v>1 tahun, 4 bulan, 4 hari</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -692,7 +692,7 @@
       <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J6" s="7" t="s">
@@ -703,7 +703,7 @@
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 tahun, 5 bulan, 8 hari</v>
+        <v>1 tahun, 5 bulan, 3 hari</v>
       </c>
       <c r="M6" s="1"/>
     </row>

--- a/Desktop/BACTH NO & EXPIRY DATE.xlsx
+++ b/Desktop/BACTH NO & EXPIRY DATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1E5F6-6499-4CB7-92A4-72F17F549868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8BDF49-CE5C-49C4-822D-274F14227915}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" xr2:uid="{574035D6-8DF7-4F0A-83B2-5281B377678F}"/>
   </bookViews>
@@ -596,7 +596,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), E3, "y") &gt; 0, DATEDIF(TODAY(), E3, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E3, "ym") &gt; 0, DATEDIF(TODAY(), E3, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E3, "md") &amp; " hari"</f>
-        <v>9 bulan, 20 hari</v>
+        <v>9 bulan, 2 hari</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="5" t="s">
@@ -613,7 +613,7 @@
       </c>
       <c r="L3" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), K3, "y") &gt; 0, DATEDIF(TODAY(), K3, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), K3, "ym") &gt; 0, DATEDIF(TODAY(), K3, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), K3, "md") &amp; " hari"</f>
-        <v>1 tahun, 10 bulan, 3 hari</v>
+        <v>1 tahun, 9 bulan, 16 hari</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), E4, "y") &gt; 0, DATEDIF(TODAY(), E4, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E4, "ym") &gt; 0, DATEDIF(TODAY(), E4, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E4, "md") &amp; " hari"</f>
-        <v>1 bulan, 12 hari</v>
+        <v>25 hari</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="5" t="s">
@@ -646,7 +646,7 @@
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" ref="L4:L6" ca="1" si="0">IF(DATEDIF(TODAY(), K4, "y") &gt; 0, DATEDIF(TODAY(), K4, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), K4, "ym") &gt; 0, DATEDIF(TODAY(), K4, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), K4, "md") &amp; " hari"</f>
-        <v>1 tahun, 9 bulan, 3 hari</v>
+        <v>1 tahun, 8 bulan, 16 hari</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f ca="1">IF(DATEDIF(TODAY(), E5, "y") &gt; 0, DATEDIF(TODAY(), E5, "y") &amp; " tahun, ", "") &amp; IF(DATEDIF(TODAY(), E5, "ym") &gt; 0, DATEDIF(TODAY(), E5, "ym") &amp; " bulan, ", "") &amp; DATEDIF(TODAY(), E5, "md") &amp; " hari"</f>
-        <v>3 tahun, 10 bulan, 3 hari</v>
+        <v>3 tahun, 9 bulan, 16 hari</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="5" t="s">
@@ -679,7 +679,7 @@
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 tahun, 4 bulan, 4 hari</v>
+        <v>1 tahun, 3 bulan, 17 hari</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1 tahun, 5 bulan, 3 hari</v>
+        <v>1 tahun, 4 bulan, 16 hari</v>
       </c>
       <c r="M6" s="1"/>
     </row>
